--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\Project_github\MTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06C00B9-801C-4B04-B4B3-0F2BFF0F9DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4344AE0-C8F6-42EF-A907-4C50E0C34FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="4365" windowWidth="14595" windowHeight="11835" xr2:uid="{F77AAA97-663F-4602-970E-1C4A592CE1C9}"/>
+    <workbookView xWindow="0" yWindow="2220" windowWidth="14595" windowHeight="11835" xr2:uid="{F77AAA97-663F-4602-970E-1C4A592CE1C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,132 +389,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BA8654-BD1B-4D7A-A400-74C6404C07A7}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="B1">
-        <v>1.0494002184154725</v>
+        <v>0.99528767174687272</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B2">
-        <v>1.0894949635996549</v>
+        <v>0.99544758331613337</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B3">
-        <v>1.0454301936787891</v>
+        <v>0.99366194691837828</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B4">
-        <v>1.060342711735236</v>
+        <v>0.97839765715160798</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="B5">
-        <v>1.0384492084149624</v>
+        <v>1.0001020162371537</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B6">
-        <v>0.97573617655005185</v>
+        <v>0.93447520770110293</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B7">
-        <v>0.98875882886917443</v>
+        <v>0.93589146107554688</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>767</v>
+        <v>731</v>
       </c>
       <c r="B8">
-        <v>1.1545046081542094</v>
+        <v>1.128314909821301</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B9">
-        <v>1.4212231144564931</v>
+        <v>1.4159687228742117</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B10">
-        <v>1.0488564611436115</v>
+        <v>0.99806733031077355</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B11">
-        <v>1.0629452804391208</v>
+        <v>0.97826987130172849</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="B12">
-        <v>1.0396066893941547</v>
+        <v>0.9846528953168493</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B13">
-        <v>1.0494480474496994</v>
+        <v>1.0051661117913391</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B14">
-        <v>0.99399598474656559</v>
+        <v>0.95112845424564674</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B15">
-        <v>0.98661627469461299</v>
+        <v>0.92846592289706231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>788</v>
+      </c>
+      <c r="B16">
+        <v>0.92081102464898457</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\Project_github\MTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4344AE0-C8F6-42EF-A907-4C50E0C34FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD74138-FD1B-4D46-86E9-B834592AB812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2220" windowWidth="14595" windowHeight="11835" xr2:uid="{F77AAA97-663F-4602-970E-1C4A592CE1C9}"/>
   </bookViews>
@@ -399,130 +399,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>781</v>
+        <v>960</v>
       </c>
       <c r="B1">
-        <v>0.99528767174687272</v>
+        <v>0.65504710504148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>775</v>
+        <v>961</v>
       </c>
       <c r="B2">
-        <v>0.99544758331613337</v>
+        <v>0.69777994343773486</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>783</v>
+        <v>955</v>
       </c>
       <c r="B3">
-        <v>0.99366194691837828</v>
+        <v>0.66044502523845805</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>786</v>
+        <v>956</v>
       </c>
       <c r="B4">
-        <v>0.97839765715160798</v>
+        <v>0.64299845252052812</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>781</v>
+        <v>950</v>
       </c>
       <c r="B5">
-        <v>1.0001020162371537</v>
+        <v>0.64086123447815802</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>784</v>
+        <v>955</v>
       </c>
       <c r="B6">
-        <v>0.93447520770110293</v>
+        <v>0.59568874189673238</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>783</v>
+        <v>958</v>
       </c>
       <c r="B7">
-        <v>0.93589146107554688</v>
+        <v>0.61551393786456243</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>731</v>
+        <v>955</v>
       </c>
       <c r="B8">
-        <v>1.128314909821301</v>
+        <v>0.78615169611556479</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>558</v>
+        <v>959</v>
       </c>
       <c r="B9">
-        <v>1.4159687228742117</v>
+        <v>1.095004481419972</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>782</v>
+        <v>957</v>
       </c>
       <c r="B10">
-        <v>0.99806733031077355</v>
+        <v>0.66949612975909711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>783</v>
+        <v>959</v>
       </c>
       <c r="B11">
-        <v>0.97826987130172849</v>
+        <v>0.68162421391399308</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>782</v>
+        <v>957</v>
       </c>
       <c r="B12">
-        <v>0.9846528953168493</v>
+        <v>0.66504883358225264</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>787</v>
+        <v>959</v>
       </c>
       <c r="B13">
-        <v>1.0051661117913391</v>
+        <v>0.66773788525658995</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>788</v>
+        <v>954</v>
       </c>
       <c r="B14">
-        <v>0.95112845424564674</v>
+        <v>0.60163424860976888</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>786</v>
+        <v>957</v>
       </c>
       <c r="B15">
-        <v>0.92846592289706231</v>
+        <v>0.60215980781802203</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>788</v>
+        <v>956</v>
       </c>
       <c r="B16">
-        <v>0.92081102464898457</v>
+        <v>0.58960609917455231</v>
       </c>
     </row>
   </sheetData>
